--- a/Documentation/Hardware Production Budget.xlsx
+++ b/Documentation/Hardware Production Budget.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Supplier</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Humber Book Store</t>
+  </si>
+  <si>
+    <t>CAPSTONE PROJECT BUDGET</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -427,9 +430,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -449,48 +449,51 @@
     <xf numFmtId="44" fontId="8" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -508,6 +511,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -829,10 +835,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,27 +851,42 @@
     <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.28515625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="54.28515625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+    </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:11" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -874,7 +895,7 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -898,225 +919,225 @@
       <c r="J5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>93.99</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <f>G6*0.13</f>
         <v>12.2187</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <f>C6*G6 +H6</f>
         <v>106.20869999999999</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="21">
         <v>1</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>7.16</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <f t="shared" ref="H7:H18" si="0">G7*0.13</f>
         <v>0.93080000000000007</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <f>C7*G7 +H7</f>
         <v>8.0907999999999998</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="21">
         <v>1</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>14.65</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>1.9045000000000001</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <f>C8*G8 +H8</f>
         <v>16.554500000000001</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>9.99</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>1.2987</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <f>C9*G9 +H9</f>
         <v>11.2887</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="21">
         <v>1</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>6.5</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <f t="shared" si="0"/>
         <v>0.84499999999999997</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>4.95</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <f>C10*G10 +H10+I10</f>
         <v>12.295</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="21">
         <v>1</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>2.73</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <f>G11*0.13</f>
         <v>0.35489999999999999</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>8</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <f>C11*G11 +H11+I11</f>
         <v>11.084900000000001</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="25" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1132,11 +1153,11 @@
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <f>SUM(J6:J11)</f>
         <v>165.52259999999998</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
@@ -1149,184 +1170,184 @@
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="38"/>
-      <c r="K13" s="15"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="15"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="21">
         <v>1</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="20">
+      <c r="F15" s="14"/>
+      <c r="G15" s="18">
         <v>24.74</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <f>G15*0.13</f>
         <v>3.2161999999999997</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17">
+      <c r="I15" s="16"/>
+      <c r="J15" s="16">
         <f>C15*G15+H15</f>
         <v>27.956199999999999</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="20">
+      <c r="F16" s="14"/>
+      <c r="G16" s="18">
         <v>3</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16">
         <v>3</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="21">
         <v>1</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="17">
+      <c r="F17" s="14"/>
+      <c r="G17" s="16">
         <v>3</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17">
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16">
         <f>C17*G17 +H17+I17</f>
         <v>3</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="21">
         <v>1</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>10.96</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <f t="shared" si="0"/>
         <v>1.4248000000000001</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <v>8</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="16">
         <f>C18*G18 +H18+I18</f>
         <v>20.384799999999998</v>
       </c>
-      <c r="K18" s="15"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="21">
         <v>1</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="17">
+      <c r="F19" s="14"/>
+      <c r="G19" s="16">
         <v>92.95</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <f>G19*0.13</f>
         <v>12.083500000000001</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17">
+      <c r="I19" s="16"/>
+      <c r="J19" s="16">
         <f>C19*G19+H19</f>
         <v>105.0335</v>
       </c>
-      <c r="K19" s="27"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="24">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="22">
         <f>SUM(J15:J19)</f>
         <v>159.37450000000001</v>
       </c>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -1337,25 +1358,25 @@
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
       <c r="J21" s="35"/>
-      <c r="K21" s="28"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="18">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="17">
         <f>J12+J20</f>
         <v>324.89710000000002</v>
       </c>
-      <c r="K22" s="15"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G23" s="8"/>
@@ -1442,7 +1463,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="29"/>
+      <c r="K36" s="27"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="G37" s="6"/>
@@ -1493,7 +1514,8 @@
       <c r="I47" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A12:I12"/>
